--- a/Minigin/Data/Level/LevelLayout2.xlsx
+++ b/Minigin/Data/Level/LevelLayout2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saril\Documents\GitHub\Programming4\2DAE14_Janssen_Sari_Tron\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BB754C-81AC-423D-B923-2C4CC33A9D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EA404D-60B4-43B5-9F86-86F158CD2930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4DA9D7AD-EAE2-43E4-A737-467F9E8D8689}"/>
   </bookViews>
@@ -78,19 +78,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.249977111117893"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +455,7 @@
   <dimension ref="A1:BF54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD52" sqref="AD52"/>
+      <selection activeCell="AR30" sqref="AR30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,11 +714,11 @@
       <c r="W2" s="2">
         <v>1</v>
       </c>
-      <c r="X2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>1</v>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
       </c>
       <c r="Z2" s="2">
         <v>1</v>
@@ -881,95 +881,95 @@
       <c r="T3" s="4">
         <v>2</v>
       </c>
-      <c r="U3" s="7">
+      <c r="U3" s="4">
+        <v>2</v>
+      </c>
+      <c r="V3" s="4">
+        <v>2</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="6">
         <v>5</v>
       </c>
-      <c r="V3" s="7">
+      <c r="AX3" s="6">
         <v>5</v>
-      </c>
-      <c r="W3" s="4">
-        <v>2</v>
-      </c>
-      <c r="X3" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AU3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX3" s="4">
-        <v>2</v>
       </c>
       <c r="AY3" s="4">
         <v>2</v>
@@ -1057,95 +1057,95 @@
       <c r="T4" s="4">
         <v>2</v>
       </c>
-      <c r="U4" s="7">
+      <c r="U4" s="4">
+        <v>2</v>
+      </c>
+      <c r="V4" s="4">
+        <v>2</v>
+      </c>
+      <c r="W4" s="2">
+        <v>1</v>
+      </c>
+      <c r="X4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="6">
         <v>5</v>
       </c>
-      <c r="V4" s="7">
+      <c r="AX4" s="6">
         <v>5</v>
-      </c>
-      <c r="W4" s="4">
-        <v>2</v>
-      </c>
-      <c r="X4" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AR4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AS4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AU4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX4" s="4">
-        <v>2</v>
       </c>
       <c r="AY4" s="4">
         <v>2</v>
@@ -1215,11 +1215,11 @@
       <c r="N5" s="3">
         <v>1</v>
       </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3">
-        <v>1</v>
+      <c r="O5" s="4">
+        <v>2</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2</v>
       </c>
       <c r="Q5" s="3">
         <v>1</v>
@@ -1227,41 +1227,41 @@
       <c r="R5" s="3">
         <v>1</v>
       </c>
-      <c r="S5" s="4">
-        <v>2</v>
-      </c>
-      <c r="T5" s="4">
-        <v>2</v>
-      </c>
-      <c r="U5" s="3">
-        <v>1</v>
-      </c>
-      <c r="V5" s="3">
-        <v>1</v>
-      </c>
-      <c r="W5" s="3">
-        <v>1</v>
-      </c>
-      <c r="X5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>2</v>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>2</v>
+      </c>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1</v>
       </c>
       <c r="AE5" s="3">
         <v>1</v>
@@ -1275,17 +1275,17 @@
       <c r="AH5" s="3">
         <v>1</v>
       </c>
-      <c r="AI5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="3">
-        <v>1</v>
+      <c r="AI5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>2</v>
       </c>
       <c r="AM5" s="3">
         <v>1</v>
@@ -1299,17 +1299,17 @@
       <c r="AP5" s="3">
         <v>1</v>
       </c>
-      <c r="AQ5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="4">
-        <v>2</v>
+      <c r="AQ5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="3">
+        <v>1</v>
       </c>
       <c r="AU5" s="3">
         <v>1</v>
@@ -1388,35 +1388,35 @@
       <c r="M6" s="1">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <v>2</v>
-      </c>
-      <c r="T6" s="4">
-        <v>2</v>
-      </c>
-      <c r="U6" s="3">
-        <v>1</v>
-      </c>
-      <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="1">
-        <v>0</v>
+      <c r="N6" s="3">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2</v>
+      </c>
+      <c r="V6" s="4">
+        <v>2</v>
+      </c>
+      <c r="W6" s="2">
+        <v>1</v>
       </c>
       <c r="X6" s="1">
         <v>0</v>
@@ -1424,23 +1424,23 @@
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="Z6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>1</v>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
       </c>
       <c r="AF6" s="1">
         <v>0</v>
@@ -1448,23 +1448,23 @@
       <c r="AG6" s="1">
         <v>0</v>
       </c>
-      <c r="AH6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="1">
-        <v>0</v>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>1</v>
       </c>
       <c r="AN6" s="1">
         <v>0</v>
@@ -1472,23 +1472,23 @@
       <c r="AO6" s="1">
         <v>0</v>
       </c>
-      <c r="AP6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>1</v>
+      <c r="AP6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
       </c>
       <c r="AV6" s="1">
         <v>0</v>
@@ -1564,35 +1564,35 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4">
-        <v>2</v>
-      </c>
-      <c r="T7" s="4">
-        <v>2</v>
-      </c>
-      <c r="U7" s="3">
-        <v>1</v>
-      </c>
-      <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="1">
-        <v>0</v>
+      <c r="N7" s="3">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0</v>
+      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="7">
+        <v>4</v>
+      </c>
+      <c r="V7" s="7">
+        <v>4</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1</v>
       </c>
       <c r="X7" s="1">
         <v>0</v>
@@ -1600,23 +1600,23 @@
       <c r="Y7" s="1">
         <v>0</v>
       </c>
-      <c r="Z7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>1</v>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0</v>
       </c>
       <c r="AF7" s="1">
         <v>0</v>
@@ -1624,23 +1624,23 @@
       <c r="AG7" s="1">
         <v>0</v>
       </c>
-      <c r="AH7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="1">
-        <v>0</v>
+      <c r="AH7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>1</v>
       </c>
       <c r="AN7" s="1">
         <v>0</v>
@@ -1648,23 +1648,23 @@
       <c r="AO7" s="1">
         <v>0</v>
       </c>
-      <c r="AP7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT7" s="4">
-        <v>2</v>
-      </c>
-      <c r="AU7" s="3">
-        <v>1</v>
+      <c r="AP7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>0</v>
       </c>
       <c r="AV7" s="1">
         <v>0</v>
@@ -1716,11 +1716,11 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <v>1</v>
@@ -1743,77 +1743,77 @@
       <c r="N8" s="3">
         <v>1</v>
       </c>
-      <c r="O8" s="3">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1</v>
+      <c r="O8" s="4">
+        <v>2</v>
+      </c>
+      <c r="P8" s="4">
+        <v>2</v>
       </c>
       <c r="Q8" s="3">
         <v>1</v>
       </c>
-      <c r="R8" s="3">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4">
-        <v>2</v>
-      </c>
-      <c r="T8" s="4">
-        <v>2</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD8" s="4">
-        <v>2</v>
+      <c r="R8" s="1">
+        <v>0</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1</v>
+      </c>
+      <c r="U8" s="7">
+        <v>4</v>
+      </c>
+      <c r="V8" s="7">
+        <v>4</v>
+      </c>
+      <c r="W8" s="2">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1</v>
       </c>
       <c r="AE8" s="3">
         <v>1</v>
       </c>
-      <c r="AF8" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>0</v>
+      <c r="AF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1</v>
       </c>
       <c r="AH8" s="3">
         <v>1</v>
       </c>
-      <c r="AI8" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ8" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL8" s="3">
-        <v>1</v>
+      <c r="AI8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="4">
+        <v>2</v>
       </c>
       <c r="AM8" s="3">
         <v>1</v>
@@ -1827,17 +1827,17 @@
       <c r="AP8" s="3">
         <v>1</v>
       </c>
-      <c r="AQ8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="3">
-        <v>1</v>
-      </c>
-      <c r="AS8" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT8" s="4">
-        <v>2</v>
+      <c r="AQ8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="3">
+        <v>1</v>
       </c>
       <c r="AU8" s="3">
         <v>1</v>
@@ -1854,11 +1854,11 @@
       <c r="AY8" s="3">
         <v>1</v>
       </c>
-      <c r="AZ8" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA8" s="3">
-        <v>1</v>
+      <c r="AZ8" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>0</v>
       </c>
       <c r="BB8" s="3">
         <v>1</v>
@@ -1889,23 +1889,23 @@
       <c r="D9" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>4</v>
-      </c>
-      <c r="J9" s="6">
-        <v>4</v>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2</v>
       </c>
       <c r="K9" s="4">
         <v>2</v>
@@ -1925,17 +1925,17 @@
       <c r="P9" s="4">
         <v>2</v>
       </c>
-      <c r="Q9" s="4">
-        <v>2</v>
-      </c>
-      <c r="R9" s="4">
-        <v>2</v>
-      </c>
-      <c r="S9" s="4">
-        <v>2</v>
-      </c>
-      <c r="T9" s="4">
-        <v>2</v>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1</v>
       </c>
       <c r="U9" s="4">
         <v>2</v>
@@ -1943,17 +1943,17 @@
       <c r="V9" s="4">
         <v>2</v>
       </c>
-      <c r="W9" s="4">
-        <v>2</v>
-      </c>
-      <c r="X9" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y9" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="4">
-        <v>2</v>
+      <c r="W9" s="2">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
       </c>
       <c r="AA9" s="4">
         <v>2</v>
@@ -1967,17 +1967,17 @@
       <c r="AD9" s="4">
         <v>2</v>
       </c>
-      <c r="AE9" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="3">
-        <v>1</v>
+      <c r="AE9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>2</v>
       </c>
       <c r="AI9" s="4">
         <v>2</v>
@@ -2009,11 +2009,11 @@
       <c r="AR9" s="4">
         <v>2</v>
       </c>
-      <c r="AS9" s="5">
-        <v>6</v>
-      </c>
-      <c r="AT9" s="5">
-        <v>6</v>
+      <c r="AS9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT9" s="4">
+        <v>2</v>
       </c>
       <c r="AU9" s="4">
         <v>2</v>
@@ -2027,17 +2027,17 @@
       <c r="AX9" s="4">
         <v>2</v>
       </c>
-      <c r="AY9" s="4">
-        <v>2</v>
-      </c>
-      <c r="AZ9" s="4">
-        <v>2</v>
-      </c>
-      <c r="BA9" s="4">
-        <v>2</v>
-      </c>
-      <c r="BB9" s="4">
-        <v>2</v>
+      <c r="AY9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="3">
+        <v>1</v>
       </c>
       <c r="BC9" s="4">
         <v>2</v>
@@ -2065,23 +2065,23 @@
       <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>4</v>
-      </c>
-      <c r="J10" s="6">
-        <v>4</v>
+      <c r="E10" s="4">
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2</v>
       </c>
       <c r="K10" s="4">
         <v>2</v>
@@ -2101,17 +2101,17 @@
       <c r="P10" s="4">
         <v>2</v>
       </c>
-      <c r="Q10" s="4">
-        <v>2</v>
-      </c>
-      <c r="R10" s="4">
-        <v>2</v>
-      </c>
-      <c r="S10" s="4">
-        <v>2</v>
-      </c>
-      <c r="T10" s="4">
-        <v>2</v>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
       </c>
       <c r="U10" s="4">
         <v>2</v>
@@ -2119,17 +2119,17 @@
       <c r="V10" s="4">
         <v>2</v>
       </c>
-      <c r="W10" s="4">
-        <v>2</v>
-      </c>
-      <c r="X10" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y10" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z10" s="4">
-        <v>2</v>
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1</v>
       </c>
       <c r="AA10" s="4">
         <v>2</v>
@@ -2143,17 +2143,17 @@
       <c r="AD10" s="4">
         <v>2</v>
       </c>
-      <c r="AE10" s="3">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="1">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="3">
-        <v>1</v>
+      <c r="AE10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="4">
+        <v>2</v>
       </c>
       <c r="AI10" s="4">
         <v>2</v>
@@ -2185,11 +2185,11 @@
       <c r="AR10" s="4">
         <v>2</v>
       </c>
-      <c r="AS10" s="5">
-        <v>6</v>
-      </c>
-      <c r="AT10" s="5">
-        <v>6</v>
+      <c r="AS10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="4">
+        <v>2</v>
       </c>
       <c r="AU10" s="4">
         <v>2</v>
@@ -2203,17 +2203,17 @@
       <c r="AX10" s="4">
         <v>2</v>
       </c>
-      <c r="AY10" s="4">
-        <v>2</v>
-      </c>
-      <c r="AZ10" s="4">
-        <v>2</v>
-      </c>
-      <c r="BA10" s="4">
-        <v>2</v>
-      </c>
-      <c r="BB10" s="4">
-        <v>2</v>
+      <c r="AY10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="3">
+        <v>1</v>
       </c>
       <c r="BC10" s="4">
         <v>2</v>
@@ -2244,20 +2244,20 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
       </c>
       <c r="H11" s="3">
         <v>1</v>
       </c>
-      <c r="I11" s="4">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4">
-        <v>2</v>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
@@ -2277,41 +2277,41 @@
       <c r="P11" s="3">
         <v>1</v>
       </c>
-      <c r="Q11" s="4">
-        <v>2</v>
-      </c>
-      <c r="R11" s="4">
-        <v>2</v>
-      </c>
-      <c r="S11" s="3">
-        <v>1</v>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>0</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0</v>
       </c>
       <c r="T11" s="3">
         <v>1</v>
       </c>
-      <c r="U11" s="3">
-        <v>1</v>
-      </c>
-      <c r="V11" s="3">
-        <v>1</v>
-      </c>
-      <c r="W11" s="3">
-        <v>1</v>
-      </c>
-      <c r="X11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="3">
-        <v>1</v>
+      <c r="U11" s="4">
+        <v>2</v>
+      </c>
+      <c r="V11" s="4">
+        <v>2</v>
+      </c>
+      <c r="W11" s="2">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="4">
+        <v>2</v>
       </c>
       <c r="AC11" s="3">
         <v>1</v>
@@ -2322,26 +2322,26 @@
       <c r="AE11" s="3">
         <v>1</v>
       </c>
-      <c r="AF11" s="1">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="1">
-        <v>0</v>
+      <c r="AF11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>1</v>
       </c>
       <c r="AH11" s="3">
         <v>1</v>
       </c>
-      <c r="AI11" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ11" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="3">
-        <v>1</v>
+      <c r="AI11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL11" s="4">
+        <v>2</v>
       </c>
       <c r="AM11" s="3">
         <v>1</v>
@@ -2355,11 +2355,11 @@
       <c r="AP11" s="3">
         <v>1</v>
       </c>
-      <c r="AQ11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR11" s="3">
-        <v>1</v>
+      <c r="AQ11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="4">
+        <v>2</v>
       </c>
       <c r="AS11" s="3">
         <v>1</v>
@@ -2367,26 +2367,26 @@
       <c r="AT11" s="3">
         <v>1</v>
       </c>
-      <c r="AU11" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV11" s="4">
-        <v>2</v>
-      </c>
-      <c r="AW11" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="3">
-        <v>1</v>
+      <c r="AU11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX11" s="4">
+        <v>2</v>
       </c>
       <c r="AY11" s="3">
         <v>1</v>
       </c>
-      <c r="AZ11" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA11" s="3">
-        <v>1</v>
+      <c r="AZ11" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>0</v>
       </c>
       <c r="BB11" s="3">
         <v>1</v>
@@ -2426,17 +2426,17 @@
       <c r="G12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2</v>
-      </c>
-      <c r="J12" s="4">
-        <v>2</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
       </c>
       <c r="L12" s="1">
         <v>0</v>
@@ -2450,29 +2450,29 @@
       <c r="O12" s="1">
         <v>0</v>
       </c>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="4">
-        <v>2</v>
-      </c>
-      <c r="R12" s="4">
-        <v>2</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1</v>
-      </c>
-      <c r="T12" s="1">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="1">
-        <v>0</v>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <v>2</v>
+      </c>
+      <c r="V12" s="4">
+        <v>2</v>
+      </c>
+      <c r="W12" s="2">
+        <v>1</v>
       </c>
       <c r="X12" s="1">
         <v>0</v>
@@ -2480,17 +2480,17 @@
       <c r="Y12" s="1">
         <v>0</v>
       </c>
-      <c r="Z12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>0</v>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1</v>
       </c>
       <c r="AD12" s="1">
         <v>0</v>
@@ -2504,23 +2504,23 @@
       <c r="AG12" s="1">
         <v>0</v>
       </c>
-      <c r="AH12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ12" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>0</v>
+      <c r="AH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>1</v>
       </c>
       <c r="AN12" s="1">
         <v>0</v>
@@ -2528,35 +2528,35 @@
       <c r="AO12" s="1">
         <v>0</v>
       </c>
-      <c r="AP12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU12" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV12" s="4">
-        <v>2</v>
-      </c>
-      <c r="AW12" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>0</v>
+      <c r="AP12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY12" s="3">
+        <v>1</v>
       </c>
       <c r="AZ12" s="1">
         <v>0</v>
@@ -2602,17 +2602,17 @@
       <c r="G13" s="1">
         <v>0</v>
       </c>
-      <c r="H13" s="3">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <v>2</v>
-      </c>
-      <c r="J13" s="4">
-        <v>2</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
       </c>
       <c r="L13" s="1">
         <v>0</v>
@@ -2626,29 +2626,29 @@
       <c r="O13" s="1">
         <v>0</v>
       </c>
-      <c r="P13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>2</v>
-      </c>
-      <c r="R13" s="4">
-        <v>2</v>
-      </c>
-      <c r="S13" s="3">
-        <v>1</v>
-      </c>
-      <c r="T13" s="1">
-        <v>0</v>
-      </c>
-      <c r="U13" s="1">
-        <v>0</v>
-      </c>
-      <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="1">
-        <v>0</v>
+      <c r="P13" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" s="1">
+        <v>0</v>
+      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
+        <v>2</v>
+      </c>
+      <c r="V13" s="4">
+        <v>2</v>
+      </c>
+      <c r="W13" s="2">
+        <v>1</v>
       </c>
       <c r="X13" s="1">
         <v>0</v>
@@ -2656,17 +2656,17 @@
       <c r="Y13" s="1">
         <v>0</v>
       </c>
-      <c r="Z13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>0</v>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>1</v>
       </c>
       <c r="AD13" s="1">
         <v>0</v>
@@ -2680,23 +2680,23 @@
       <c r="AG13" s="1">
         <v>0</v>
       </c>
-      <c r="AH13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AI13" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>0</v>
+      <c r="AH13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>1</v>
       </c>
       <c r="AN13" s="1">
         <v>0</v>
@@ -2704,35 +2704,35 @@
       <c r="AO13" s="1">
         <v>0</v>
       </c>
-      <c r="AP13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU13" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV13" s="4">
-        <v>2</v>
-      </c>
-      <c r="AW13" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="1">
-        <v>0</v>
+      <c r="AP13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>1</v>
       </c>
       <c r="AZ13" s="1">
         <v>0</v>
@@ -2781,11 +2781,11 @@
       <c r="H14" s="3">
         <v>1</v>
       </c>
-      <c r="I14" s="4">
-        <v>2</v>
-      </c>
-      <c r="J14" s="4">
-        <v>2</v>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
       </c>
       <c r="K14" s="3">
         <v>1</v>
@@ -2805,11 +2805,11 @@
       <c r="P14" s="3">
         <v>1</v>
       </c>
-      <c r="Q14" s="4">
-        <v>2</v>
-      </c>
-      <c r="R14" s="4">
-        <v>2</v>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="3">
+        <v>1</v>
       </c>
       <c r="S14" s="3">
         <v>1</v>
@@ -2817,29 +2817,29 @@
       <c r="T14" s="3">
         <v>1</v>
       </c>
-      <c r="U14" s="3">
-        <v>1</v>
-      </c>
-      <c r="V14" s="3">
-        <v>1</v>
-      </c>
-      <c r="W14" s="3">
-        <v>1</v>
-      </c>
-      <c r="X14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="3">
-        <v>1</v>
+      <c r="U14" s="4">
+        <v>2</v>
+      </c>
+      <c r="V14" s="4">
+        <v>2</v>
+      </c>
+      <c r="W14" s="2">
+        <v>1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB14" s="4">
+        <v>2</v>
       </c>
       <c r="AC14" s="3">
         <v>1</v>
@@ -2859,20 +2859,20 @@
       <c r="AH14" s="3">
         <v>1</v>
       </c>
-      <c r="AI14" s="4">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="4">
-        <v>2</v>
-      </c>
-      <c r="AK14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>0</v>
+      <c r="AI14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>1</v>
       </c>
       <c r="AN14" s="3">
         <v>1</v>
@@ -2883,11 +2883,11 @@
       <c r="AP14" s="3">
         <v>1</v>
       </c>
-      <c r="AQ14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR14" s="3">
-        <v>1</v>
+      <c r="AQ14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR14" s="4">
+        <v>2</v>
       </c>
       <c r="AS14" s="3">
         <v>1</v>
@@ -2895,17 +2895,17 @@
       <c r="AT14" s="3">
         <v>1</v>
       </c>
-      <c r="AU14" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV14" s="4">
-        <v>2</v>
-      </c>
-      <c r="AW14" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="3">
-        <v>1</v>
+      <c r="AU14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX14" s="4">
+        <v>2</v>
       </c>
       <c r="AY14" s="3">
         <v>1</v>
@@ -2999,17 +2999,17 @@
       <c r="V15" s="4">
         <v>2</v>
       </c>
-      <c r="W15" s="4">
-        <v>2</v>
-      </c>
-      <c r="X15" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y15" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z15" s="4">
-        <v>2</v>
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>1</v>
       </c>
       <c r="AA15" s="4">
         <v>2</v>
@@ -3041,17 +3041,17 @@
       <c r="AJ15" s="4">
         <v>2</v>
       </c>
-      <c r="AK15" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="3">
-        <v>1</v>
+      <c r="AK15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>2</v>
       </c>
       <c r="AO15" s="4">
         <v>2</v>
@@ -3175,17 +3175,17 @@
       <c r="V16" s="4">
         <v>2</v>
       </c>
-      <c r="W16" s="4">
-        <v>2</v>
-      </c>
-      <c r="X16" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y16" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z16" s="4">
-        <v>2</v>
+      <c r="W16" s="2">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>1</v>
       </c>
       <c r="AA16" s="4">
         <v>2</v>
@@ -3217,17 +3217,17 @@
       <c r="AJ16" s="4">
         <v>2</v>
       </c>
-      <c r="AK16" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="3">
-        <v>1</v>
+      <c r="AK16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>2</v>
       </c>
       <c r="AO16" s="4">
         <v>2</v>
@@ -3327,11 +3327,11 @@
       <c r="N17" s="3">
         <v>1</v>
       </c>
-      <c r="O17" s="3">
-        <v>1</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1</v>
+      <c r="O17" s="4">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2</v>
       </c>
       <c r="Q17" s="3">
         <v>1</v>
@@ -3339,35 +3339,35 @@
       <c r="R17" s="3">
         <v>1</v>
       </c>
-      <c r="S17" s="4">
-        <v>2</v>
-      </c>
-      <c r="T17" s="4">
-        <v>2</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y17" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z17" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1</v>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <v>2</v>
+      </c>
+      <c r="V17" s="4">
+        <v>2</v>
+      </c>
+      <c r="W17" s="2">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB17" s="4">
+        <v>2</v>
       </c>
       <c r="AC17" s="3">
         <v>1</v>
@@ -3396,26 +3396,26 @@
       <c r="AK17" s="3">
         <v>1</v>
       </c>
-      <c r="AL17" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="1">
-        <v>0</v>
+      <c r="AL17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>1</v>
       </c>
       <c r="AN17" s="3">
         <v>1</v>
       </c>
-      <c r="AO17" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP17" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR17" s="3">
-        <v>1</v>
+      <c r="AO17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR17" s="4">
+        <v>2</v>
       </c>
       <c r="AS17" s="3">
         <v>1</v>
@@ -3423,17 +3423,17 @@
       <c r="AT17" s="3">
         <v>1</v>
       </c>
-      <c r="AU17" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV17" s="4">
-        <v>2</v>
-      </c>
-      <c r="AW17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX17" s="3">
-        <v>1</v>
+      <c r="AU17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX17" s="4">
+        <v>2</v>
       </c>
       <c r="AY17" s="3">
         <v>1</v>
@@ -3500,53 +3500,53 @@
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
-      </c>
-      <c r="S18" s="4">
-        <v>2</v>
-      </c>
-      <c r="T18" s="4">
-        <v>2</v>
-      </c>
-      <c r="U18" s="3">
-        <v>1</v>
-      </c>
-      <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="1">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>0</v>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4">
+        <v>2</v>
+      </c>
+      <c r="P18" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
+        <v>2</v>
+      </c>
+      <c r="V18" s="4">
+        <v>2</v>
+      </c>
+      <c r="W18" s="2">
+        <v>1</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>1</v>
       </c>
       <c r="AD18" s="1">
         <v>0</v>
@@ -3578,41 +3578,41 @@
       <c r="AM18" s="1">
         <v>0</v>
       </c>
-      <c r="AN18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV18" s="4">
-        <v>2</v>
-      </c>
-      <c r="AW18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX18" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="1">
-        <v>0</v>
+      <c r="AN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY18" s="3">
+        <v>1</v>
       </c>
       <c r="AZ18" s="1">
         <v>0</v>
@@ -3676,53 +3676,53 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1</v>
-      </c>
-      <c r="S19" s="4">
-        <v>2</v>
-      </c>
-      <c r="T19" s="4">
-        <v>2</v>
-      </c>
-      <c r="U19" s="3">
-        <v>1</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="1">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y19" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z19" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>0</v>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>2</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <v>2</v>
+      </c>
+      <c r="V19" s="4">
+        <v>2</v>
+      </c>
+      <c r="W19" s="2">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
       </c>
       <c r="AD19" s="1">
         <v>0</v>
@@ -3754,41 +3754,41 @@
       <c r="AM19" s="1">
         <v>0</v>
       </c>
-      <c r="AN19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO19" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP19" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AU19" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV19" s="4">
-        <v>2</v>
-      </c>
-      <c r="AW19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX19" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="1">
-        <v>0</v>
+      <c r="AN19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY19" s="3">
+        <v>1</v>
       </c>
       <c r="AZ19" s="1">
         <v>0</v>
@@ -3846,20 +3846,20 @@
       <c r="K20" s="3">
         <v>1</v>
       </c>
-      <c r="L20" s="3">
-        <v>1</v>
-      </c>
-      <c r="M20" s="3">
-        <v>1</v>
+      <c r="L20" s="1">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>1</v>
       </c>
-      <c r="O20" s="3">
-        <v>1</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1</v>
+      <c r="O20" s="4">
+        <v>2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2</v>
       </c>
       <c r="Q20" s="3">
         <v>1</v>
@@ -3867,35 +3867,35 @@
       <c r="R20" s="3">
         <v>1</v>
       </c>
-      <c r="S20" s="4">
-        <v>2</v>
-      </c>
-      <c r="T20" s="4">
-        <v>2</v>
-      </c>
-      <c r="U20" s="3">
-        <v>1</v>
-      </c>
-      <c r="V20" s="3">
-        <v>1</v>
-      </c>
-      <c r="W20" s="3">
-        <v>1</v>
-      </c>
-      <c r="X20" s="3">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z20" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>1</v>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1</v>
+      </c>
+      <c r="U20" s="4">
+        <v>2</v>
+      </c>
+      <c r="V20" s="4">
+        <v>2</v>
+      </c>
+      <c r="W20" s="2">
+        <v>1</v>
+      </c>
+      <c r="X20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>2</v>
       </c>
       <c r="AC20" s="3">
         <v>1</v>
@@ -3933,17 +3933,17 @@
       <c r="AN20" s="3">
         <v>1</v>
       </c>
-      <c r="AO20" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP20" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="3">
-        <v>1</v>
+      <c r="AO20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR20" s="4">
+        <v>2</v>
       </c>
       <c r="AS20" s="3">
         <v>1</v>
@@ -3951,17 +3951,17 @@
       <c r="AT20" s="3">
         <v>1</v>
       </c>
-      <c r="AU20" s="4">
-        <v>2</v>
-      </c>
-      <c r="AV20" s="4">
-        <v>2</v>
-      </c>
-      <c r="AW20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX20" s="3">
-        <v>1</v>
+      <c r="AU20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX20" s="4">
+        <v>2</v>
       </c>
       <c r="AY20" s="3">
         <v>1</v>
@@ -3995,11 +3995,11 @@
       <c r="B21" s="3">
         <v>1</v>
       </c>
-      <c r="C21" s="4">
-        <v>2</v>
-      </c>
-      <c r="D21" s="4">
-        <v>2</v>
+      <c r="C21" s="5">
+        <v>6</v>
+      </c>
+      <c r="D21" s="5">
+        <v>6</v>
       </c>
       <c r="E21" s="3">
         <v>1</v>
@@ -4019,17 +4019,17 @@
       <c r="J21" s="4">
         <v>2</v>
       </c>
-      <c r="K21" s="4">
-        <v>2</v>
-      </c>
-      <c r="L21" s="4">
-        <v>2</v>
-      </c>
-      <c r="M21" s="4">
-        <v>2</v>
-      </c>
-      <c r="N21" s="4">
-        <v>2</v>
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="L21" s="1">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1</v>
       </c>
       <c r="O21" s="4">
         <v>2</v>
@@ -4037,11 +4037,11 @@
       <c r="P21" s="4">
         <v>2</v>
       </c>
-      <c r="Q21" s="7">
-        <v>5</v>
-      </c>
-      <c r="R21" s="7">
-        <v>5</v>
+      <c r="Q21" s="4">
+        <v>2</v>
+      </c>
+      <c r="R21" s="4">
+        <v>2</v>
       </c>
       <c r="S21" s="4">
         <v>2</v>
@@ -4171,11 +4171,11 @@
       <c r="B22" s="3">
         <v>1</v>
       </c>
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" s="4">
-        <v>2</v>
+      <c r="C22" s="5">
+        <v>6</v>
+      </c>
+      <c r="D22" s="5">
+        <v>6</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
@@ -4195,17 +4195,17 @@
       <c r="J22" s="4">
         <v>2</v>
       </c>
-      <c r="K22" s="4">
-        <v>2</v>
-      </c>
-      <c r="L22" s="4">
-        <v>2</v>
-      </c>
-      <c r="M22" s="4">
-        <v>2</v>
-      </c>
-      <c r="N22" s="4">
-        <v>2</v>
+      <c r="K22" s="3">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>1</v>
       </c>
       <c r="O22" s="4">
         <v>2</v>
@@ -4213,11 +4213,11 @@
       <c r="P22" s="4">
         <v>2</v>
       </c>
-      <c r="Q22" s="7">
-        <v>5</v>
-      </c>
-      <c r="R22" s="7">
-        <v>5</v>
+      <c r="Q22" s="4">
+        <v>2</v>
+      </c>
+      <c r="R22" s="4">
+        <v>2</v>
       </c>
       <c r="S22" s="4">
         <v>2</v>
@@ -4374,11 +4374,11 @@
       <c r="K23" s="3">
         <v>1</v>
       </c>
-      <c r="L23" s="3">
-        <v>1</v>
-      </c>
-      <c r="M23" s="3">
-        <v>1</v>
+      <c r="L23" s="1">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
       </c>
       <c r="N23" s="3">
         <v>1</v>
@@ -4485,11 +4485,11 @@
       <c r="AV23" s="3">
         <v>1</v>
       </c>
-      <c r="AW23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX23" s="3">
-        <v>1</v>
+      <c r="AW23" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX23" s="4">
+        <v>2</v>
       </c>
       <c r="AY23" s="3">
         <v>1</v>
@@ -4503,11 +4503,11 @@
       <c r="BB23" s="3">
         <v>1</v>
       </c>
-      <c r="BC23" s="3">
-        <v>1</v>
-      </c>
-      <c r="BD23" s="3">
-        <v>1</v>
+      <c r="BC23" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD23" s="4">
+        <v>2</v>
       </c>
       <c r="BE23" s="3">
         <v>1</v>
@@ -4658,17 +4658,17 @@
       <c r="AU24" s="1">
         <v>0</v>
       </c>
-      <c r="AV24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX24" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="1">
-        <v>0</v>
+      <c r="AV24" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW24" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX24" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY24" s="3">
+        <v>1</v>
       </c>
       <c r="AZ24" s="1">
         <v>0</v>
@@ -4676,17 +4676,17 @@
       <c r="BA24" s="1">
         <v>0</v>
       </c>
-      <c r="BB24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="1">
-        <v>0</v>
+      <c r="BB24" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC24" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD24" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE24" s="3">
+        <v>1</v>
       </c>
       <c r="BF24" s="1">
         <v>0</v>
@@ -4834,17 +4834,17 @@
       <c r="AU25" s="1">
         <v>0</v>
       </c>
-      <c r="AV25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX25" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="1">
-        <v>0</v>
+      <c r="AV25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW25" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY25" s="3">
+        <v>1</v>
       </c>
       <c r="AZ25" s="1">
         <v>0</v>
@@ -4852,17 +4852,17 @@
       <c r="BA25" s="1">
         <v>0</v>
       </c>
-      <c r="BB25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="1">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="1">
-        <v>0</v>
+      <c r="BB25" s="3">
+        <v>1</v>
+      </c>
+      <c r="BC25" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD25" s="4">
+        <v>2</v>
+      </c>
+      <c r="BE25" s="3">
+        <v>1</v>
       </c>
       <c r="BF25" s="1">
         <v>0</v>
@@ -4986,11 +4986,11 @@
       <c r="AM26" s="3">
         <v>1</v>
       </c>
-      <c r="AN26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO26" s="3">
-        <v>1</v>
+      <c r="AN26" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>0</v>
       </c>
       <c r="AP26" s="3">
         <v>1</v>
@@ -5013,29 +5013,29 @@
       <c r="AV26" s="3">
         <v>1</v>
       </c>
-      <c r="AW26" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX26" s="3">
-        <v>1</v>
+      <c r="AW26" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX26" s="4">
+        <v>2</v>
       </c>
       <c r="AY26" s="3">
         <v>1</v>
       </c>
-      <c r="AZ26" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA26" s="3">
-        <v>1</v>
+      <c r="AZ26" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="1">
+        <v>0</v>
       </c>
       <c r="BB26" s="3">
         <v>1</v>
       </c>
-      <c r="BC26" s="3">
-        <v>1</v>
-      </c>
-      <c r="BD26" s="3">
-        <v>1</v>
+      <c r="BC26" s="4">
+        <v>2</v>
+      </c>
+      <c r="BD26" s="4">
+        <v>2</v>
       </c>
       <c r="BE26" s="3">
         <v>1</v>
@@ -5159,17 +5159,17 @@
       <c r="AL27" s="4">
         <v>2</v>
       </c>
-      <c r="AM27" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN27" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO27" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP27" s="4">
-        <v>2</v>
+      <c r="AM27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="3">
+        <v>1</v>
       </c>
       <c r="AQ27" s="4">
         <v>2</v>
@@ -5195,17 +5195,17 @@
       <c r="AX27" s="4">
         <v>2</v>
       </c>
-      <c r="AY27" s="4">
-        <v>2</v>
-      </c>
-      <c r="AZ27" s="4">
-        <v>2</v>
-      </c>
-      <c r="BA27" s="4">
-        <v>2</v>
-      </c>
-      <c r="BB27" s="4">
-        <v>2</v>
+      <c r="AY27" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="3">
+        <v>1</v>
       </c>
       <c r="BC27" s="4">
         <v>2</v>
@@ -5335,17 +5335,17 @@
       <c r="AL28" s="4">
         <v>2</v>
       </c>
-      <c r="AM28" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN28" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO28" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP28" s="4">
-        <v>2</v>
+      <c r="AM28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>1</v>
       </c>
       <c r="AQ28" s="4">
         <v>2</v>
@@ -5371,17 +5371,17 @@
       <c r="AX28" s="4">
         <v>2</v>
       </c>
-      <c r="AY28" s="4">
-        <v>2</v>
-      </c>
-      <c r="AZ28" s="4">
-        <v>2</v>
-      </c>
-      <c r="BA28" s="4">
-        <v>2</v>
-      </c>
-      <c r="BB28" s="4">
-        <v>2</v>
+      <c r="AY28" s="3">
+        <v>1</v>
+      </c>
+      <c r="AZ28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="3">
+        <v>1</v>
       </c>
       <c r="BC28" s="4">
         <v>2</v>
@@ -5403,11 +5403,11 @@
       <c r="B29" s="3">
         <v>1</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
+      <c r="C29" s="4">
+        <v>2</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
       </c>
       <c r="E29" s="3">
         <v>1</v>
@@ -5439,11 +5439,11 @@
       <c r="N29" s="3">
         <v>1</v>
       </c>
-      <c r="O29" s="3">
-        <v>1</v>
-      </c>
-      <c r="P29" s="3">
-        <v>1</v>
+      <c r="O29" s="4">
+        <v>2</v>
+      </c>
+      <c r="P29" s="4">
+        <v>2</v>
       </c>
       <c r="Q29" s="3">
         <v>1</v>
@@ -5514,11 +5514,11 @@
       <c r="AM29" s="3">
         <v>1</v>
       </c>
-      <c r="AN29" s="3">
-        <v>1</v>
-      </c>
-      <c r="AO29" s="3">
-        <v>1</v>
+      <c r="AN29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>0</v>
       </c>
       <c r="AP29" s="3">
         <v>1</v>
@@ -5550,11 +5550,11 @@
       <c r="AY29" s="3">
         <v>1</v>
       </c>
-      <c r="AZ29" s="3">
-        <v>1</v>
-      </c>
-      <c r="BA29" s="3">
-        <v>1</v>
+      <c r="AZ29" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>0</v>
       </c>
       <c r="BB29" s="3">
         <v>1</v>
@@ -5576,17 +5576,17 @@
       <c r="A30" s="1">
         <v>0</v>
       </c>
-      <c r="B30" s="1">
-        <v>0</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>2</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="3">
+        <v>1</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -5612,17 +5612,17 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>0</v>
+      <c r="N30" s="3">
+        <v>1</v>
+      </c>
+      <c r="O30" s="4">
+        <v>2</v>
+      </c>
+      <c r="P30" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>1</v>
       </c>
       <c r="R30" s="1">
         <v>0</v>
@@ -5752,17 +5752,17 @@
       <c r="A31" s="1">
         <v>0</v>
       </c>
-      <c r="B31" s="1">
-        <v>0</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0</v>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3">
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -5788,17 +5788,17 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>0</v>
+      <c r="N31" s="3">
+        <v>1</v>
+      </c>
+      <c r="O31" s="4">
+        <v>2</v>
+      </c>
+      <c r="P31" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>1</v>
       </c>
       <c r="R31" s="1">
         <v>0</v>
@@ -5857,11 +5857,11 @@
       <c r="AJ31" s="3">
         <v>1</v>
       </c>
-      <c r="AK31" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL31" s="4">
-        <v>2</v>
+      <c r="AK31" s="7">
+        <v>4</v>
+      </c>
+      <c r="AL31" s="7">
+        <v>4</v>
       </c>
       <c r="AM31" s="3">
         <v>1</v>
@@ -5931,20 +5931,20 @@
       <c r="B32" s="3">
         <v>1</v>
       </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
+      <c r="C32" s="4">
+        <v>2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
       </c>
       <c r="E32" s="3">
         <v>1</v>
       </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>1</v>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -5967,11 +5967,11 @@
       <c r="N32" s="3">
         <v>1</v>
       </c>
-      <c r="O32" s="3">
-        <v>1</v>
-      </c>
-      <c r="P32" s="3">
-        <v>1</v>
+      <c r="O32" s="4">
+        <v>2</v>
+      </c>
+      <c r="P32" s="4">
+        <v>2</v>
       </c>
       <c r="Q32" s="3">
         <v>1</v>
@@ -6033,11 +6033,11 @@
       <c r="AJ32" s="3">
         <v>1</v>
       </c>
-      <c r="AK32" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL32" s="4">
-        <v>2</v>
+      <c r="AK32" s="7">
+        <v>4</v>
+      </c>
+      <c r="AL32" s="7">
+        <v>4</v>
       </c>
       <c r="AM32" s="3">
         <v>1</v>
@@ -6060,11 +6060,11 @@
       <c r="AS32" s="3">
         <v>1</v>
       </c>
-      <c r="AT32" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="1">
-        <v>0</v>
+      <c r="AT32" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="3">
+        <v>1</v>
       </c>
       <c r="AV32" s="3">
         <v>1</v>
@@ -6113,17 +6113,17 @@
       <c r="D33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4">
-        <v>2</v>
-      </c>
-      <c r="H33" s="4">
-        <v>2</v>
+      <c r="E33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
       </c>
       <c r="I33" s="4">
         <v>2</v>
@@ -6233,17 +6233,17 @@
       <c r="AR33" s="4">
         <v>2</v>
       </c>
-      <c r="AS33" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="3">
-        <v>1</v>
+      <c r="AS33" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT33" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU33" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV33" s="4">
+        <v>2</v>
       </c>
       <c r="AW33" s="4">
         <v>2</v>
@@ -6289,17 +6289,17 @@
       <c r="D34" s="4">
         <v>2</v>
       </c>
-      <c r="E34" s="4">
-        <v>2</v>
-      </c>
-      <c r="F34" s="4">
-        <v>2</v>
-      </c>
-      <c r="G34" s="4">
-        <v>2</v>
-      </c>
-      <c r="H34" s="4">
-        <v>2</v>
+      <c r="E34" s="3">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
       </c>
       <c r="I34" s="4">
         <v>2</v>
@@ -6409,17 +6409,17 @@
       <c r="AR34" s="4">
         <v>2</v>
       </c>
-      <c r="AS34" s="3">
-        <v>1</v>
-      </c>
-      <c r="AT34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU34" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV34" s="3">
-        <v>1</v>
+      <c r="AS34" s="4">
+        <v>2</v>
+      </c>
+      <c r="AT34" s="4">
+        <v>2</v>
+      </c>
+      <c r="AU34" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV34" s="4">
+        <v>2</v>
       </c>
       <c r="AW34" s="4">
         <v>2</v>
@@ -6468,20 +6468,20 @@
       <c r="E35" s="3">
         <v>1</v>
       </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>1</v>
       </c>
-      <c r="I35" s="3">
-        <v>1</v>
-      </c>
-      <c r="J35" s="3">
-        <v>1</v>
+      <c r="I35" s="4">
+        <v>2</v>
+      </c>
+      <c r="J35" s="4">
+        <v>2</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -6507,17 +6507,17 @@
       <c r="R35" s="3">
         <v>1</v>
       </c>
-      <c r="S35" s="3">
-        <v>1</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1</v>
-      </c>
-      <c r="U35" s="4">
-        <v>2</v>
-      </c>
-      <c r="V35" s="4">
-        <v>2</v>
+      <c r="S35" s="4">
+        <v>2</v>
+      </c>
+      <c r="T35" s="4">
+        <v>2</v>
+      </c>
+      <c r="U35" s="3">
+        <v>1</v>
+      </c>
+      <c r="V35" s="3">
+        <v>1</v>
       </c>
       <c r="W35" s="3">
         <v>1</v>
@@ -6525,11 +6525,11 @@
       <c r="X35" s="3">
         <v>1</v>
       </c>
-      <c r="Y35" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>1</v>
+      <c r="Y35" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z35" s="4">
+        <v>2</v>
       </c>
       <c r="AA35" s="3">
         <v>1</v>
@@ -6561,11 +6561,11 @@
       <c r="AJ35" s="3">
         <v>1</v>
       </c>
-      <c r="AK35" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL35" s="3">
-        <v>1</v>
+      <c r="AK35" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL35" s="4">
+        <v>2</v>
       </c>
       <c r="AM35" s="3">
         <v>1</v>
@@ -6579,29 +6579,29 @@
       <c r="AP35" s="3">
         <v>1</v>
       </c>
-      <c r="AQ35" s="4">
-        <v>2</v>
-      </c>
-      <c r="AR35" s="4">
-        <v>2</v>
+      <c r="AQ35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR35" s="3">
+        <v>1</v>
       </c>
       <c r="AS35" s="3">
         <v>1</v>
       </c>
-      <c r="AT35" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU35" s="1">
-        <v>0</v>
+      <c r="AT35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU35" s="3">
+        <v>1</v>
       </c>
       <c r="AV35" s="3">
         <v>1</v>
       </c>
-      <c r="AW35" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX35" s="4">
-        <v>2</v>
+      <c r="AW35" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX35" s="3">
+        <v>1</v>
       </c>
       <c r="AY35" s="3">
         <v>1</v>
@@ -6650,17 +6650,17 @@
       <c r="G36" s="1">
         <v>0</v>
       </c>
-      <c r="H36" s="1">
-        <v>0</v>
-      </c>
-      <c r="I36" s="1">
-        <v>0</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0</v>
-      </c>
-      <c r="K36" s="1">
-        <v>0</v>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="4">
+        <v>2</v>
+      </c>
+      <c r="J36" s="4">
+        <v>2</v>
+      </c>
+      <c r="K36" s="3">
+        <v>1</v>
       </c>
       <c r="L36" s="1">
         <v>0</v>
@@ -6680,35 +6680,35 @@
       <c r="Q36" s="1">
         <v>0</v>
       </c>
-      <c r="R36" s="1">
-        <v>0</v>
-      </c>
-      <c r="S36" s="1">
-        <v>0</v>
-      </c>
-      <c r="T36" s="3">
-        <v>1</v>
-      </c>
-      <c r="U36" s="4">
-        <v>2</v>
-      </c>
-      <c r="V36" s="4">
-        <v>2</v>
-      </c>
-      <c r="W36" s="3">
-        <v>1</v>
-      </c>
-      <c r="X36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="1">
-        <v>0</v>
+      <c r="R36" s="3">
+        <v>1</v>
+      </c>
+      <c r="S36" s="4">
+        <v>2</v>
+      </c>
+      <c r="T36" s="4">
+        <v>2</v>
+      </c>
+      <c r="U36" s="3">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1">
+        <v>0</v>
+      </c>
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z36" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>1</v>
       </c>
       <c r="AB36" s="1">
         <v>0</v>
@@ -6734,17 +6734,17 @@
       <c r="AI36" s="1">
         <v>0</v>
       </c>
-      <c r="AJ36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="1">
-        <v>0</v>
+      <c r="AJ36" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL36" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>1</v>
       </c>
       <c r="AN36" s="1">
         <v>0</v>
@@ -6752,17 +6752,17 @@
       <c r="AO36" s="1">
         <v>0</v>
       </c>
-      <c r="AP36" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ36" s="4">
-        <v>2</v>
-      </c>
-      <c r="AR36" s="4">
-        <v>2</v>
-      </c>
-      <c r="AS36" s="3">
-        <v>1</v>
+      <c r="AP36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>0</v>
       </c>
       <c r="AT36" s="1">
         <v>0</v>
@@ -6770,17 +6770,17 @@
       <c r="AU36" s="1">
         <v>0</v>
       </c>
-      <c r="AV36" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW36" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX36" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY36" s="3">
-        <v>1</v>
+      <c r="AV36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="1">
+        <v>0</v>
       </c>
       <c r="AZ36" s="1">
         <v>0</v>
@@ -6826,17 +6826,17 @@
       <c r="G37" s="1">
         <v>0</v>
       </c>
-      <c r="H37" s="1">
-        <v>0</v>
-      </c>
-      <c r="I37" s="1">
-        <v>0</v>
-      </c>
-      <c r="J37" s="1">
-        <v>0</v>
-      </c>
-      <c r="K37" s="1">
-        <v>0</v>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="4">
+        <v>2</v>
+      </c>
+      <c r="J37" s="4">
+        <v>2</v>
+      </c>
+      <c r="K37" s="3">
+        <v>1</v>
       </c>
       <c r="L37" s="1">
         <v>0</v>
@@ -6856,35 +6856,35 @@
       <c r="Q37" s="1">
         <v>0</v>
       </c>
-      <c r="R37" s="1">
-        <v>0</v>
-      </c>
-      <c r="S37" s="1">
-        <v>0</v>
-      </c>
-      <c r="T37" s="3">
-        <v>1</v>
-      </c>
-      <c r="U37" s="4">
-        <v>2</v>
-      </c>
-      <c r="V37" s="4">
-        <v>2</v>
-      </c>
-      <c r="W37" s="3">
-        <v>1</v>
-      </c>
-      <c r="X37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="1">
-        <v>0</v>
+      <c r="R37" s="3">
+        <v>1</v>
+      </c>
+      <c r="S37" s="4">
+        <v>2</v>
+      </c>
+      <c r="T37" s="4">
+        <v>2</v>
+      </c>
+      <c r="U37" s="3">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>1</v>
       </c>
       <c r="AB37" s="1">
         <v>0</v>
@@ -6910,17 +6910,17 @@
       <c r="AI37" s="1">
         <v>0</v>
       </c>
-      <c r="AJ37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM37" s="1">
-        <v>0</v>
+      <c r="AJ37" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL37" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>1</v>
       </c>
       <c r="AN37" s="1">
         <v>0</v>
@@ -6928,17 +6928,17 @@
       <c r="AO37" s="1">
         <v>0</v>
       </c>
-      <c r="AP37" s="3">
-        <v>1</v>
-      </c>
-      <c r="AQ37" s="4">
-        <v>2</v>
-      </c>
-      <c r="AR37" s="4">
-        <v>2</v>
-      </c>
-      <c r="AS37" s="3">
-        <v>1</v>
+      <c r="AP37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>0</v>
       </c>
       <c r="AT37" s="1">
         <v>0</v>
@@ -6946,17 +6946,17 @@
       <c r="AU37" s="1">
         <v>0</v>
       </c>
-      <c r="AV37" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW37" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX37" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY37" s="3">
-        <v>1</v>
+      <c r="AV37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="1">
+        <v>0</v>
       </c>
       <c r="AZ37" s="1">
         <v>0</v>
@@ -6996,20 +6996,20 @@
       <c r="E38" s="3">
         <v>1</v>
       </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-      <c r="G38" s="1">
-        <v>0</v>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1</v>
       </c>
       <c r="H38" s="3">
         <v>1</v>
       </c>
-      <c r="I38" s="3">
-        <v>1</v>
-      </c>
-      <c r="J38" s="3">
-        <v>1</v>
+      <c r="I38" s="4">
+        <v>2</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -7035,29 +7035,29 @@
       <c r="R38" s="3">
         <v>1</v>
       </c>
-      <c r="S38" s="3">
-        <v>1</v>
-      </c>
-      <c r="T38" s="3">
-        <v>1</v>
-      </c>
-      <c r="U38" s="4">
-        <v>2</v>
-      </c>
-      <c r="V38" s="4">
-        <v>2</v>
-      </c>
-      <c r="W38" s="3">
-        <v>1</v>
+      <c r="S38" s="4">
+        <v>2</v>
+      </c>
+      <c r="T38" s="4">
+        <v>2</v>
+      </c>
+      <c r="U38" s="3">
+        <v>1</v>
+      </c>
+      <c r="V38" s="1">
+        <v>0</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
       </c>
       <c r="X38" s="3">
         <v>1</v>
       </c>
-      <c r="Y38" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z38" s="3">
-        <v>1</v>
+      <c r="Y38" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="4">
+        <v>2</v>
       </c>
       <c r="AA38" s="3">
         <v>1</v>
@@ -7080,20 +7080,20 @@
       <c r="AG38" s="3">
         <v>1</v>
       </c>
-      <c r="AH38" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="1">
-        <v>0</v>
+      <c r="AH38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>1</v>
       </c>
       <c r="AJ38" s="3">
         <v>1</v>
       </c>
-      <c r="AK38" s="3">
-        <v>1</v>
-      </c>
-      <c r="AL38" s="3">
-        <v>1</v>
+      <c r="AK38" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL38" s="4">
+        <v>2</v>
       </c>
       <c r="AM38" s="3">
         <v>1</v>
@@ -7107,11 +7107,11 @@
       <c r="AP38" s="3">
         <v>1</v>
       </c>
-      <c r="AQ38" s="4">
-        <v>2</v>
-      </c>
-      <c r="AR38" s="4">
-        <v>2</v>
+      <c r="AQ38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="3">
+        <v>1</v>
       </c>
       <c r="AS38" s="3">
         <v>1</v>
@@ -7125,11 +7125,11 @@
       <c r="AV38" s="3">
         <v>1</v>
       </c>
-      <c r="AW38" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX38" s="4">
-        <v>2</v>
+      <c r="AW38" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX38" s="3">
+        <v>1</v>
       </c>
       <c r="AY38" s="3">
         <v>1</v>
@@ -7169,17 +7169,17 @@
       <c r="D39" s="4">
         <v>2</v>
       </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>0</v>
-      </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3">
-        <v>1</v>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2</v>
       </c>
       <c r="I39" s="4">
         <v>2</v>
@@ -7196,104 +7196,104 @@
       <c r="M39" s="4">
         <v>2</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="4">
+        <v>2</v>
+      </c>
+      <c r="O39" s="4">
+        <v>2</v>
+      </c>
+      <c r="P39" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>2</v>
+      </c>
+      <c r="R39" s="4">
+        <v>2</v>
+      </c>
+      <c r="S39" s="6">
+        <v>5</v>
+      </c>
+      <c r="T39" s="6">
+        <v>5</v>
+      </c>
+      <c r="U39" s="3">
+        <v>1</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y39" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AO39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR39" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS39" s="5">
         <v>6</v>
       </c>
-      <c r="O39" s="5">
+      <c r="AT39" s="5">
         <v>6</v>
-      </c>
-      <c r="P39" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>2</v>
-      </c>
-      <c r="R39" s="4">
-        <v>2</v>
-      </c>
-      <c r="S39" s="4">
-        <v>2</v>
-      </c>
-      <c r="T39" s="4">
-        <v>2</v>
-      </c>
-      <c r="U39" s="4">
-        <v>2</v>
-      </c>
-      <c r="V39" s="4">
-        <v>2</v>
-      </c>
-      <c r="W39" s="4">
-        <v>2</v>
-      </c>
-      <c r="X39" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y39" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ39" s="6">
-        <v>4</v>
-      </c>
-      <c r="AR39" s="6">
-        <v>4</v>
-      </c>
-      <c r="AS39" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT39" s="4">
-        <v>2</v>
       </c>
       <c r="AU39" s="4">
         <v>2</v>
@@ -7345,17 +7345,17 @@
       <c r="D40" s="4">
         <v>2</v>
       </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3">
-        <v>1</v>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2</v>
       </c>
       <c r="I40" s="4">
         <v>2</v>
@@ -7372,104 +7372,104 @@
       <c r="M40" s="4">
         <v>2</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="4">
+        <v>2</v>
+      </c>
+      <c r="O40" s="4">
+        <v>2</v>
+      </c>
+      <c r="P40" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q40" s="4">
+        <v>2</v>
+      </c>
+      <c r="R40" s="4">
+        <v>2</v>
+      </c>
+      <c r="S40" s="6">
+        <v>5</v>
+      </c>
+      <c r="T40" s="6">
+        <v>5</v>
+      </c>
+      <c r="U40" s="3">
+        <v>1</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0</v>
+      </c>
+      <c r="W40" s="1">
+        <v>0</v>
+      </c>
+      <c r="X40" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AO40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR40" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS40" s="5">
         <v>6</v>
       </c>
-      <c r="O40" s="5">
+      <c r="AT40" s="5">
         <v>6</v>
-      </c>
-      <c r="P40" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>2</v>
-      </c>
-      <c r="R40" s="4">
-        <v>2</v>
-      </c>
-      <c r="S40" s="4">
-        <v>2</v>
-      </c>
-      <c r="T40" s="4">
-        <v>2</v>
-      </c>
-      <c r="U40" s="4">
-        <v>2</v>
-      </c>
-      <c r="V40" s="4">
-        <v>2</v>
-      </c>
-      <c r="W40" s="4">
-        <v>2</v>
-      </c>
-      <c r="X40" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ40" s="6">
-        <v>4</v>
-      </c>
-      <c r="AR40" s="6">
-        <v>4</v>
-      </c>
-      <c r="AS40" s="4">
-        <v>2</v>
-      </c>
-      <c r="AT40" s="4">
-        <v>2</v>
       </c>
       <c r="AU40" s="4">
         <v>2</v>
@@ -7515,29 +7515,29 @@
       <c r="B41" s="3">
         <v>1</v>
       </c>
-      <c r="C41" s="4">
-        <v>2</v>
-      </c>
-      <c r="D41" s="4">
-        <v>2</v>
+      <c r="C41" s="3">
+        <v>1</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
       </c>
       <c r="E41" s="3">
         <v>1</v>
       </c>
-      <c r="F41" s="1">
-        <v>0</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0</v>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
       </c>
       <c r="H41" s="3">
         <v>1</v>
       </c>
-      <c r="I41" s="4">
-        <v>2</v>
-      </c>
-      <c r="J41" s="4">
-        <v>2</v>
+      <c r="I41" s="3">
+        <v>1</v>
+      </c>
+      <c r="J41" s="3">
+        <v>1</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -7572,11 +7572,11 @@
       <c r="U41" s="3">
         <v>1</v>
       </c>
-      <c r="V41" s="3">
-        <v>1</v>
-      </c>
-      <c r="W41" s="3">
-        <v>1</v>
+      <c r="V41" s="1">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>1</v>
@@ -7599,29 +7599,29 @@
       <c r="AD41" s="3">
         <v>1</v>
       </c>
-      <c r="AE41" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF41" s="4">
-        <v>2</v>
+      <c r="AE41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>1</v>
       </c>
       <c r="AG41" s="3">
         <v>1</v>
       </c>
-      <c r="AH41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK41" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL41" s="4">
-        <v>2</v>
+      <c r="AH41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ41" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>1</v>
       </c>
       <c r="AM41" s="3">
         <v>1</v>
@@ -7629,11 +7629,11 @@
       <c r="AN41" s="3">
         <v>1</v>
       </c>
-      <c r="AO41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP41" s="3">
-        <v>1</v>
+      <c r="AO41" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP41" s="4">
+        <v>2</v>
       </c>
       <c r="AQ41" s="3">
         <v>1</v>
@@ -7653,11 +7653,11 @@
       <c r="AV41" s="3">
         <v>1</v>
       </c>
-      <c r="AW41" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX41" s="3">
-        <v>1</v>
+      <c r="AW41" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX41" s="4">
+        <v>2</v>
       </c>
       <c r="AY41" s="3">
         <v>1</v>
@@ -7688,17 +7688,17 @@
       <c r="A42" s="1">
         <v>0</v>
       </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4">
-        <v>2</v>
-      </c>
-      <c r="D42" s="4">
-        <v>2</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -7706,17 +7706,17 @@
       <c r="G42" s="1">
         <v>0</v>
       </c>
-      <c r="H42" s="3">
-        <v>1</v>
-      </c>
-      <c r="I42" s="4">
-        <v>2</v>
-      </c>
-      <c r="J42" s="4">
-        <v>2</v>
-      </c>
-      <c r="K42" s="3">
-        <v>1</v>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1">
+        <v>0</v>
       </c>
       <c r="L42" s="1">
         <v>0</v>
@@ -7772,47 +7772,47 @@
       <c r="AC42" s="1">
         <v>0</v>
       </c>
-      <c r="AD42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF42" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK42" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL42" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM42" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ42" s="1">
-        <v>0</v>
+      <c r="AD42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ42" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP42" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ42" s="3">
+        <v>1</v>
       </c>
       <c r="AR42" s="1">
         <v>0</v>
@@ -7826,17 +7826,17 @@
       <c r="AU42" s="1">
         <v>0</v>
       </c>
-      <c r="AV42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY42" s="1">
-        <v>0</v>
+      <c r="AV42" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW42" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX42" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY42" s="3">
+        <v>1</v>
       </c>
       <c r="AZ42" s="1">
         <v>0</v>
@@ -7864,17 +7864,17 @@
       <c r="A43" s="1">
         <v>0</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="4">
-        <v>2</v>
-      </c>
-      <c r="D43" s="4">
-        <v>2</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -7882,17 +7882,17 @@
       <c r="G43" s="1">
         <v>0</v>
       </c>
-      <c r="H43" s="3">
-        <v>1</v>
-      </c>
-      <c r="I43" s="4">
-        <v>2</v>
-      </c>
-      <c r="J43" s="4">
-        <v>2</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1</v>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1">
+        <v>0</v>
       </c>
       <c r="L43" s="1">
         <v>0</v>
@@ -7948,47 +7948,47 @@
       <c r="AC43" s="1">
         <v>0</v>
       </c>
-      <c r="AD43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF43" s="4">
-        <v>2</v>
-      </c>
-      <c r="AG43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK43" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL43" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM43" s="3">
-        <v>1</v>
-      </c>
-      <c r="AN43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AP43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="1">
-        <v>0</v>
+      <c r="AD43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ43" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AO43" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP43" s="4">
+        <v>2</v>
+      </c>
+      <c r="AQ43" s="3">
+        <v>1</v>
       </c>
       <c r="AR43" s="1">
         <v>0</v>
@@ -8002,17 +8002,17 @@
       <c r="AU43" s="1">
         <v>0</v>
       </c>
-      <c r="AV43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AX43" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY43" s="1">
-        <v>0</v>
+      <c r="AV43" s="3">
+        <v>1</v>
+      </c>
+      <c r="AW43" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX43" s="4">
+        <v>2</v>
+      </c>
+      <c r="AY43" s="3">
+        <v>1</v>
       </c>
       <c r="AZ43" s="1">
         <v>0</v>
@@ -8043,11 +8043,11 @@
       <c r="B44" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="4">
-        <v>2</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2</v>
+      <c r="C44" s="3">
+        <v>1</v>
+      </c>
+      <c r="D44" s="3">
+        <v>1</v>
       </c>
       <c r="E44" s="3">
         <v>1</v>
@@ -8061,11 +8061,11 @@
       <c r="H44" s="3">
         <v>1</v>
       </c>
-      <c r="I44" s="4">
-        <v>2</v>
-      </c>
-      <c r="J44" s="4">
-        <v>2</v>
+      <c r="I44" s="3">
+        <v>1</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1</v>
       </c>
       <c r="K44" s="3">
         <v>1</v>
@@ -8127,11 +8127,11 @@
       <c r="AD44" s="3">
         <v>1</v>
       </c>
-      <c r="AE44" s="4">
-        <v>2</v>
-      </c>
-      <c r="AF44" s="4">
-        <v>2</v>
+      <c r="AE44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>1</v>
       </c>
       <c r="AG44" s="3">
         <v>1</v>
@@ -8139,29 +8139,29 @@
       <c r="AH44" s="3">
         <v>1</v>
       </c>
-      <c r="AI44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AK44" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL44" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM44" s="3">
-        <v>1</v>
+      <c r="AI44" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ44" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK44" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>0</v>
       </c>
       <c r="AN44" s="3">
         <v>1</v>
       </c>
-      <c r="AO44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AP44" s="3">
-        <v>1</v>
+      <c r="AO44" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP44" s="4">
+        <v>2</v>
       </c>
       <c r="AQ44" s="3">
         <v>1</v>
@@ -8181,11 +8181,11 @@
       <c r="AV44" s="3">
         <v>1</v>
       </c>
-      <c r="AW44" s="3">
-        <v>1</v>
-      </c>
-      <c r="AX44" s="3">
-        <v>1</v>
+      <c r="AW44" s="4">
+        <v>2</v>
+      </c>
+      <c r="AX44" s="4">
+        <v>2</v>
       </c>
       <c r="AY44" s="3">
         <v>1</v>
@@ -8321,17 +8321,17 @@
       <c r="AJ45" s="4">
         <v>2</v>
       </c>
-      <c r="AK45" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL45" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM45" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN45" s="4">
-        <v>2</v>
+      <c r="AK45" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="3">
+        <v>1</v>
       </c>
       <c r="AO45" s="4">
         <v>2</v>
@@ -8497,17 +8497,17 @@
       <c r="AJ46" s="4">
         <v>2</v>
       </c>
-      <c r="AK46" s="4">
-        <v>2</v>
-      </c>
-      <c r="AL46" s="4">
-        <v>2</v>
-      </c>
-      <c r="AM46" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN46" s="4">
-        <v>2</v>
+      <c r="AK46" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="3">
+        <v>1</v>
       </c>
       <c r="AO46" s="4">
         <v>2</v>
@@ -8625,17 +8625,17 @@
       <c r="T47" s="3">
         <v>1</v>
       </c>
-      <c r="U47" s="3">
-        <v>1</v>
-      </c>
-      <c r="V47" s="3">
-        <v>1</v>
-      </c>
-      <c r="W47" s="4">
-        <v>2</v>
-      </c>
-      <c r="X47" s="4">
-        <v>2</v>
+      <c r="U47" s="4">
+        <v>2</v>
+      </c>
+      <c r="V47" s="4">
+        <v>2</v>
+      </c>
+      <c r="W47" s="3">
+        <v>1</v>
+      </c>
+      <c r="X47" s="3">
+        <v>1</v>
       </c>
       <c r="Y47" s="3">
         <v>1</v>
@@ -8643,17 +8643,17 @@
       <c r="Z47" s="3">
         <v>1</v>
       </c>
-      <c r="AA47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD47" s="4">
-        <v>2</v>
+      <c r="AA47" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>1</v>
       </c>
       <c r="AE47" s="3">
         <v>1</v>
@@ -8667,23 +8667,23 @@
       <c r="AH47" s="3">
         <v>1</v>
       </c>
-      <c r="AI47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ47" s="3">
-        <v>1</v>
+      <c r="AI47" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ47" s="4">
+        <v>2</v>
       </c>
       <c r="AK47" s="3">
         <v>1</v>
       </c>
-      <c r="AL47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM47" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN47" s="4">
-        <v>2</v>
+      <c r="AL47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="3">
+        <v>1</v>
       </c>
       <c r="AO47" s="3">
         <v>1</v>
@@ -8703,17 +8703,17 @@
       <c r="AT47" s="3">
         <v>1</v>
       </c>
-      <c r="AU47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV47" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW47" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX47" s="4">
-        <v>2</v>
+      <c r="AU47" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV47" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW47" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX47" s="3">
+        <v>1</v>
       </c>
       <c r="AY47" s="3">
         <v>1</v>
@@ -8798,41 +8798,41 @@
       <c r="S48" s="1">
         <v>0</v>
       </c>
-      <c r="T48" s="1">
-        <v>0</v>
-      </c>
-      <c r="U48" s="1">
-        <v>0</v>
-      </c>
-      <c r="V48" s="3">
-        <v>1</v>
-      </c>
-      <c r="W48" s="4">
-        <v>2</v>
-      </c>
-      <c r="X48" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD48" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE48" s="3">
-        <v>1</v>
+      <c r="T48" s="3">
+        <v>1</v>
+      </c>
+      <c r="U48" s="4">
+        <v>2</v>
+      </c>
+      <c r="V48" s="4">
+        <v>2</v>
+      </c>
+      <c r="W48" s="3">
+        <v>1</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>0</v>
       </c>
       <c r="AF48" s="1">
         <v>0</v>
@@ -8840,29 +8840,29 @@
       <c r="AG48" s="1">
         <v>0</v>
       </c>
-      <c r="AH48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL48" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM48" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN48" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO48" s="3">
-        <v>1</v>
+      <c r="AH48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ48" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>0</v>
       </c>
       <c r="AP48" s="1">
         <v>0</v>
@@ -8876,23 +8876,23 @@
       <c r="AS48" s="1">
         <v>0</v>
       </c>
-      <c r="AT48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU48" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV48" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW48" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX48" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY48" s="3">
-        <v>1</v>
+      <c r="AT48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV48" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW48" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="1">
+        <v>0</v>
       </c>
       <c r="AZ48" s="1">
         <v>0</v>
@@ -8974,41 +8974,41 @@
       <c r="S49" s="1">
         <v>0</v>
       </c>
-      <c r="T49" s="1">
-        <v>0</v>
-      </c>
-      <c r="U49" s="1">
-        <v>0</v>
-      </c>
-      <c r="V49" s="3">
-        <v>1</v>
-      </c>
-      <c r="W49" s="4">
-        <v>2</v>
-      </c>
-      <c r="X49" s="4">
-        <v>2</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>1</v>
-      </c>
-      <c r="Z49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD49" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE49" s="3">
-        <v>1</v>
+      <c r="T49" s="3">
+        <v>1</v>
+      </c>
+      <c r="U49" s="4">
+        <v>2</v>
+      </c>
+      <c r="V49" s="4">
+        <v>2</v>
+      </c>
+      <c r="W49" s="3">
+        <v>1</v>
+      </c>
+      <c r="X49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>0</v>
       </c>
       <c r="AF49" s="1">
         <v>0</v>
@@ -9016,29 +9016,29 @@
       <c r="AG49" s="1">
         <v>0</v>
       </c>
-      <c r="AH49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AI49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AJ49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AL49" s="3">
-        <v>1</v>
-      </c>
-      <c r="AM49" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN49" s="4">
-        <v>2</v>
-      </c>
-      <c r="AO49" s="3">
-        <v>1</v>
+      <c r="AH49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="1">
+        <v>0</v>
       </c>
       <c r="AP49" s="1">
         <v>0</v>
@@ -9052,23 +9052,23 @@
       <c r="AS49" s="1">
         <v>0</v>
       </c>
-      <c r="AT49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU49" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV49" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW49" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX49" s="4">
-        <v>2</v>
-      </c>
-      <c r="AY49" s="3">
-        <v>1</v>
+      <c r="AT49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AU49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV49" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW49" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="1">
+        <v>0</v>
       </c>
       <c r="AZ49" s="1">
         <v>0</v>
@@ -9153,17 +9153,17 @@
       <c r="T50" s="3">
         <v>1</v>
       </c>
-      <c r="U50" s="3">
-        <v>1</v>
-      </c>
-      <c r="V50" s="3">
-        <v>1</v>
-      </c>
-      <c r="W50" s="4">
-        <v>2</v>
-      </c>
-      <c r="X50" s="4">
-        <v>2</v>
+      <c r="U50" s="4">
+        <v>2</v>
+      </c>
+      <c r="V50" s="4">
+        <v>2</v>
+      </c>
+      <c r="W50" s="3">
+        <v>1</v>
+      </c>
+      <c r="X50" s="3">
+        <v>1</v>
       </c>
       <c r="Y50" s="3">
         <v>1</v>
@@ -9171,17 +9171,17 @@
       <c r="Z50" s="3">
         <v>1</v>
       </c>
-      <c r="AA50" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB50" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD50" s="4">
-        <v>2</v>
+      <c r="AA50" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>1</v>
       </c>
       <c r="AE50" s="3">
         <v>1</v>
@@ -9195,11 +9195,11 @@
       <c r="AH50" s="3">
         <v>1</v>
       </c>
-      <c r="AI50" s="3">
-        <v>1</v>
-      </c>
-      <c r="AJ50" s="3">
-        <v>1</v>
+      <c r="AI50" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ50" s="4">
+        <v>2</v>
       </c>
       <c r="AK50" s="3">
         <v>1</v>
@@ -9207,11 +9207,11 @@
       <c r="AL50" s="3">
         <v>1</v>
       </c>
-      <c r="AM50" s="4">
-        <v>2</v>
-      </c>
-      <c r="AN50" s="4">
-        <v>2</v>
+      <c r="AM50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN50" s="3">
+        <v>1</v>
       </c>
       <c r="AO50" s="3">
         <v>1</v>
@@ -9231,17 +9231,17 @@
       <c r="AT50" s="3">
         <v>1</v>
       </c>
-      <c r="AU50" s="3">
-        <v>1</v>
-      </c>
-      <c r="AV50" s="3">
-        <v>1</v>
-      </c>
-      <c r="AW50" s="4">
-        <v>2</v>
-      </c>
-      <c r="AX50" s="4">
-        <v>2</v>
+      <c r="AU50" s="4">
+        <v>2</v>
+      </c>
+      <c r="AV50" s="4">
+        <v>2</v>
+      </c>
+      <c r="AW50" s="3">
+        <v>1</v>
+      </c>
+      <c r="AX50" s="3">
+        <v>1</v>
       </c>
       <c r="AY50" s="3">
         <v>1</v>
@@ -9305,11 +9305,11 @@
       <c r="L51" s="4">
         <v>2</v>
       </c>
-      <c r="M51" s="4">
-        <v>2</v>
-      </c>
-      <c r="N51" s="4">
-        <v>2</v>
+      <c r="M51" s="7">
+        <v>4</v>
+      </c>
+      <c r="N51" s="7">
+        <v>4</v>
       </c>
       <c r="O51" s="4">
         <v>2</v>
@@ -9377,11 +9377,11 @@
       <c r="AJ51" s="4">
         <v>2</v>
       </c>
-      <c r="AK51" s="7">
-        <v>5</v>
-      </c>
-      <c r="AL51" s="7">
-        <v>5</v>
+      <c r="AK51" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL51" s="4">
+        <v>2</v>
       </c>
       <c r="AM51" s="4">
         <v>2</v>
@@ -9481,11 +9481,11 @@
       <c r="L52" s="4">
         <v>2</v>
       </c>
-      <c r="M52" s="4">
-        <v>2</v>
-      </c>
-      <c r="N52" s="4">
-        <v>2</v>
+      <c r="M52" s="7">
+        <v>4</v>
+      </c>
+      <c r="N52" s="7">
+        <v>4</v>
       </c>
       <c r="O52" s="4">
         <v>2</v>
@@ -9553,11 +9553,11 @@
       <c r="AJ52" s="4">
         <v>2</v>
       </c>
-      <c r="AK52" s="7">
-        <v>5</v>
-      </c>
-      <c r="AL52" s="7">
-        <v>5</v>
+      <c r="AK52" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL52" s="4">
+        <v>2</v>
       </c>
       <c r="AM52" s="4">
         <v>2</v>
